--- a/app/Exports/EmployeeExcel/EmployeesExport.xlsx
+++ b/app/Exports/EmployeeExcel/EmployeesExport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>first_name</t>
   </si>
@@ -56,6 +56,39 @@
     <t>employee_image</t>
   </si>
   <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>2004-08-15</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>09270134330</t>
+  </si>
+  <si>
+    <t>C.P.</t>
+  </si>
+  <si>
+    <t>NLB</t>
+  </si>
+  <si>
+    <t>Taguig</t>
+  </si>
+  <si>
+    <t>Metro Manila</t>
+  </si>
+  <si>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>defaultmale.png</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -65,27 +98,15 @@
     <t>1990-01-01</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Kapayapaan</t>
   </si>
   <si>
     <t>Maligaya</t>
   </si>
   <si>
-    <t>Taguig</t>
-  </si>
-  <si>
-    <t>Metro Manila</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>defaultmale.png</t>
-  </si>
-  <si>
     <t>Jane</t>
   </si>
   <si>
@@ -105,9 +126,6 @@
   </si>
   <si>
     <t>Pasay</t>
-  </si>
-  <si>
-    <t>Cashier</t>
   </si>
   <si>
     <t>defaultfemale.png</t>
@@ -525,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,52 +605,52 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>9291264123</v>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>9291298128</v>
+        <v>9291264123</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -641,142 +659,183 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
       <c r="L3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>9291298128</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4">
-        <v>200</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>150</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>150</v>
       </c>
       <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>150</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
